--- a/Texts/Город Сокровищ/Все персонажи/Маркроу.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Маркроу.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Ÿ èàòìôçéâàý òâåñëàýþåãï é\náìåòóÿþåãï ñàîãà![K] Èàòìôçéâàý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This must be the Juice Bar\neveryone\'s been talking about…</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1104.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Должно быть это тот Бар Напитков,\nо котором столько говорят...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïìçîï áúóû üóï óïó Áàñ Îàðéóëïâ,\nï ëïóïñïí òóïìûëï ãïâïñÿó…</t>
   </si>
 </sst>
 </file>
@@ -136,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -177,11 +189,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -202,6 +225,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -484,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,17 +641,35 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6">
         <v>303</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="8">
+        <v>278</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Маркроу.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Маркроу.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -118,6 +118,78 @@
   </si>
   <si>
     <t xml:space="preserve"> Äïìçîï áúóû üóï óïó Áàñ Îàðéóëïâ,\nï ëïóïñïí òóïìûëï ãïâïñÿó…</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1311.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I keep an eye out for\nsparkly things!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What I find most intriguing\nright now is the [CS:I]Golden Mask[CR]. Imagine its\nglittery gleam!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But my partner [CS:N]Shuppet[CR] isn\'t\nkeen on the idea at all…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She refuses, with silly reasons\nlike, \"It sounds so garish and tacky!\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arrgh, it is just so frustrating!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я ищу всякие разные блестяшки!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сейчас я особенно заинтересована\nв [CS:I]Золотой Маске[CR]. Только представь, как\nона сверкает!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но моя спутница [CS:N]Шаппет[CR] не\nразделяет моего настроя...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ааррх, как же это меня бесит!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ éþô âòÿëéå ñàèîúå áìåòóÿšëé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òåêœàò ÿ ïòïáåîîï èàéîóåñåòïâàîà\nâ [CS:I]Èïìïóïê Íàòëå[CR]. Óïìûëï ðñåäòóàâû, ëàë\nïîà òâåñëàåó!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï íïÿ òðôóîéøà [CS:N]Šàððåó[CR] îå\nñàèäåìÿåó íïåãï îàòóñïÿ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ààññö, ëàë çå üóï íåîÿ áåòéó!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Она упирается с такими глупыми\nотговорками как: \"Это так кричаще и\nбезвкусно!\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïîà ôðéñàåóòÿ ò óàëéíé ãìôðúíé\nïóãïâïñëàíé ëàë: \"Üóï óàë ëñéœàþå é\náåèâëôòîï!\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The treasure must be seriously\nsparkly! My heart tells me so!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There\'s no mistake!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/T01P02A/um1411.ssb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Должно быть, это сокровище очень\nсверкает! Сердцем чую!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ошибки быть не может!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïìçîï áúóû, üóï òïëñïâéþå ïœåîû\nòâåñëàåó! Òåñäøåí œôý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïšéáëé áúóû îå íïçåó!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1506.ssb</t>
   </si>
 </sst>
 </file>
@@ -513,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,6 +744,114 @@
         <v>32</v>
       </c>
     </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4">
+        <v>247</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>250</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>253</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>256</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6">
+        <v>259</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="4">
+        <v>225</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="4">
+        <v>228</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Маркроу.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Маркроу.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -190,6 +190,27 @@
   </si>
   <si>
     <t>SCRIPT/T01P02A/um1506.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um2103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The [CS:P]Hidden Land[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don\'t think so...?[K] No, I\'ve never\nheard of such a place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Сокрытые Земли[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну, не знаю?..[K] Нет, никогда\nне слышала об этом месте.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Òïëñúóúå Èåíìé[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô, îå èîàý?..[K] Îåó, îéëïãäà\nîå òìúšàìà ïá üóïí íåòóå.</t>
   </si>
 </sst>
 </file>
@@ -585,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,20 +857,51 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="6">
         <v>228</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="4">
+        <v>203</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>206</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Маркроу.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Маркроу.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -211,6 +211,93 @@
   </si>
   <si>
     <t xml:space="preserve"> Îô, îå èîàý?..[K] Îåó, îéëïãäà\nîå òìúšàìà ïá üóïí íåòóå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> One day, I will find a sparkly,\nglittery treasure!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us3109.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Однажды я найду блестящее,\nсверкающее сокровище! </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïäîàçäú ÿ îàêäô áìåòóÿþåå,\nòâåñëàýþåå òïëñïâéþå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What do you think is the\ngreatest secret treasure of all, darlings?</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P21A/us3103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I bet it is...a sparkly, golden...\nsomething!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как ты думаешь, дорогуша, что\nесть самое ценное в мире сокровище?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я уверена, что это... Блестящее,\nзолотое... Нечто!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë óú äôíàåšû, äïñïãôšà, œóï\nåòóû òàíïå øåîîïå â íéñå òïëñïâéþå?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ôâåñåîà, œóï üóï... Áìåòóÿþåå,\nèïìïóïå... Îåœóï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I was about to seize a glittery,\nsparkly treasure, but the wind blew me away!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kyaaaah!\nFrustrating!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us3124.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я только хотела забрать\nблестящее, сверкающее сокровище, как меня\nсдуло ветром!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Каааарррр! Бесит!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ óïìûëï öïóåìà èàáñàóû\náìåòóÿþåå, òâåñëàýþåå òïëñïâéþå, ëàë íåîÿ\nòäôìï âåóñïí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëààààññññ! Áåòéó!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P21A/us3104.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re more interested in\ntreasure than in climbing the mountain!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нас больше интересуют сокровища,\nчем восхождение на гору!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàò áïìûšå éîóåñåòôýó òïëñïâéþà,\nœåí âïòöïçäåîéå îà ãïñô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The 6th Station Clearing seems\nkind of empty…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The 2nd Station Clearing was\nvery busy and just gorgeous…</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P26A/us3103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как то на Поляне 6-го Перехода\nпустовато...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поляна 2-го Перехода очень\nоживленная и просто великолепная...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë óï îà Ðïìÿîå 6-ãï Ðåñåöïäà\nðôòóïâàóï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïìÿîà 2-ãï Ðåñåöïäà ïœåîû\nïçéâìåîîàÿ é ðñïòóï âåìéëïìåðîàÿ...</t>
   </si>
 </sst>
 </file>
@@ -606,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,17 +978,147 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="4">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6">
         <v>206</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="8">
+        <v>184</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="4">
+        <v>162</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6">
+        <v>165</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="4">
+        <v>146</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6">
+        <v>149</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="8">
+        <v>127</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="4">
+        <v>111</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>114</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Маркроу.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Маркроу.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -298,6 +298,102 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðïìÿîà 2-ãï Ðåñåöïäà ïœåîû\nïçéâìåîîàÿ é ðñïòóï âåìéëïìåðîàÿ...</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us3118.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We were looking for hidden\ntreasure buried on [CS:P]Sky Peak[CR] but didn\'t\nfind any.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But we found some very shiny,\nsparkly treasure, so I\'m satisfied!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы искали спрятанное сокровище\n[CS:P]Небесного Пика[CR], но так ничего и не нашли.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú éòëàìé òðñÿóàîîïå òïëñïâéþå\n[CS:P]Îåáåòîïãï Ðéëà[CR], îï óàë îéœåãï é îå îàšìé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï, íú îàšìé îåòëïìûëï áìåòóÿþéö\né òâåñëàýþéö øåîîïòóåê, óàë œóï ÿ âðïìîå\näïâïìûîà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но, мы нашли несколько блестящих\nи сверкающих ценностей, так что я вполне\nдовольна!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want a [CS:I]Golden Apple[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oooh, I must have it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]But there\'s been precious\nlittle information about it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/T01P02A/us0209.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я хочу [CS:I]Золотое Яблоко[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Оооо, я обязана его получить!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Но по нему так мало ценной\nинформации.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ öïœô [CS:I]Èïìïóïå Ÿáìïëï[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïïïï, ÿ ïáÿèàîà åãï ðïìôœéóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Îï ðï îåíô óàë íàìï øåîîïê\néîõïñíàøéé.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0303.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I discovered there\'s something\nI find more desirable than the [CS:I]Golden Apple[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And that is...[K]the [CS:I]Lost Loot[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2010.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ve heard rumors that the\nincredibly valuable [CS:I]Lost Loot[CR] is buried\nsomewhere!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Do you know anything of it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я узнала, что есть нечто более\nценное, чем [CS:I]Золотое Яблоко[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И это...[K] [CS:I]Утерянное Добро[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я слышала, что где-то закопано\nневероятно ценное [CS:I]Утерянное Добро[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы что-нибудь знаете об этом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ôèîàìà, œóï åòóû îåœóï áïìåå\nøåîîïå, œåí [CS:I]Èïìïóïå Ÿáìïëï[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É üóï...[K] [CS:I]Ôóåñÿîîïå Äïáñï[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ òìúšàìà, œóï ãäå-óï èàëïðàîï\nîåâåñïÿóîï øåîîïå [CS:I]Ôóåñÿîîïå Äïáñï[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú œóï-îéáôäû èîàåóå ïá üóïí?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2013.ssb</t>
   </si>
 </sst>
 </file>
@@ -328,7 +424,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -380,11 +476,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -411,6 +516,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -693,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1108,17 +1219,161 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B26" s="4">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6">
         <v>114</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="4">
+        <v>95</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10">
+        <v>98</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="4">
+        <v>70</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="4">
+        <v>73</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6">
+        <v>76</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="4">
+        <v>42</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="4">
+        <v>45</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>48</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>51</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Маркроу.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Маркроу.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -394,6 +394,27 @@
   </si>
   <si>
     <t>SCRIPT/T01P01A/us2013.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2305.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oooh, I must have it! The [CS:I]Lost\nLoot[CR] calls to me!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The [CS:I]Lost Loot[CR] is rightfully mine!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Оооо, мне оно нужно! [CS:I]Утерянное\nДобро[CR] взывает ко мне!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:I]Утерянное Добро[CR] только моё!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïïïï, íîå ïîï îôçîï! [CS:I]Ôóåñÿîîïå\nÄïáñï[CR] âèúâàåó ëï íîå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:I]Ôóåñÿîîïå Äïáñï[CR] óïìûëï íïæ!</t>
   </si>
 </sst>
 </file>
@@ -804,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1363,17 +1384,49 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="4">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6">
         <v>51</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="7" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="4">
+        <v>19</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>22</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
